--- a/public/download/cgb_DaoHuoYanShouDan.xlsx
+++ b/public/download/cgb_DaoHuoYanShouDan.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27735" windowHeight="11985"/>
+    <workbookView xWindow="720" yWindow="400" windowWidth="27740" windowHeight="16400"/>
   </bookViews>
   <sheets>
     <sheet name="到货验收单" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -95,8 +100,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,16 +191,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -203,7 +208,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -213,46 +218,46 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -260,23 +265,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -314,50 +319,50 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -648,58 +653,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="28.25" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="8.75" customWidth="1"/>
-    <col min="5" max="5" width="13.625" customWidth="1"/>
-    <col min="6" max="6" width="13.75" customWidth="1"/>
-    <col min="7" max="7" width="12.875" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
-    <col min="9" max="9" width="14.25" customWidth="1"/>
+    <col min="2" max="2" width="28.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="39.950000000000003" customHeight="1">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:10" ht="40" customHeight="1">
+      <c r="A1" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
       <c r="J1" s="1"/>
     </row>
     <row r="2" spans="1:10" s="2" customFormat="1" ht="24" customHeight="1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9" t="s">
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="9"/>
     </row>
     <row r="3" spans="1:10" s="8" customFormat="1" ht="24" customHeight="1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="22" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -728,8 +732,8 @@
       </c>
       <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="18.95" customHeight="1">
-      <c r="A4" s="13"/>
+    <row r="4" spans="1:10" ht="19" customHeight="1">
+      <c r="A4" s="23"/>
       <c r="B4" s="15"/>
       <c r="C4" s="15"/>
       <c r="D4" s="5" t="s">
@@ -742,7 +746,7 @@
       <c r="I4" s="15"/>
       <c r="J4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="18.95" customHeight="1">
+    <row r="5" spans="1:10" ht="19" customHeight="1">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -756,7 +760,7 @@
       <c r="I5" s="3"/>
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="18.95" customHeight="1">
+    <row r="6" spans="1:10" ht="19" customHeight="1">
       <c r="A6" s="4">
         <v>2</v>
       </c>
@@ -770,7 +774,7 @@
       <c r="I6" s="3"/>
       <c r="J6" s="1"/>
     </row>
-    <row r="7" spans="1:10" ht="18.95" customHeight="1">
+    <row r="7" spans="1:10" ht="19" customHeight="1">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -784,7 +788,7 @@
       <c r="I7" s="3"/>
       <c r="J7" s="1"/>
     </row>
-    <row r="8" spans="1:10" ht="18.95" customHeight="1">
+    <row r="8" spans="1:10" ht="19" customHeight="1">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -798,7 +802,7 @@
       <c r="I8" s="3"/>
       <c r="J8" s="1"/>
     </row>
-    <row r="9" spans="1:10" ht="18.95" customHeight="1">
+    <row r="9" spans="1:10" ht="19" customHeight="1">
       <c r="A9" s="4">
         <v>5</v>
       </c>
@@ -812,7 +816,7 @@
       <c r="I9" s="3"/>
       <c r="J9" s="1"/>
     </row>
-    <row r="10" spans="1:10" ht="18.95" customHeight="1">
+    <row r="10" spans="1:10" ht="19" customHeight="1">
       <c r="A10" s="4">
         <v>6</v>
       </c>
@@ -826,7 +830,7 @@
       <c r="I10" s="3"/>
       <c r="J10" s="1"/>
     </row>
-    <row r="11" spans="1:10" ht="18.95" customHeight="1">
+    <row r="11" spans="1:10" ht="19" customHeight="1">
       <c r="A11" s="4">
         <v>7</v>
       </c>
@@ -840,7 +844,7 @@
       <c r="I11" s="3"/>
       <c r="J11" s="1"/>
     </row>
-    <row r="12" spans="1:10" ht="18.95" customHeight="1">
+    <row r="12" spans="1:10" ht="19" customHeight="1">
       <c r="A12" s="4">
         <v>8</v>
       </c>
@@ -854,7 +858,7 @@
       <c r="I12" s="3"/>
       <c r="J12" s="1"/>
     </row>
-    <row r="13" spans="1:10" ht="18.95" customHeight="1">
+    <row r="13" spans="1:10" ht="19" customHeight="1">
       <c r="A13" s="4">
         <v>9</v>
       </c>
@@ -868,7 +872,7 @@
       <c r="I13" s="3"/>
       <c r="J13" s="1"/>
     </row>
-    <row r="14" spans="1:10" ht="18.95" customHeight="1">
+    <row r="14" spans="1:10" ht="19" customHeight="1">
       <c r="A14" s="4">
         <v>10</v>
       </c>
@@ -882,7 +886,7 @@
       <c r="I14" s="3"/>
       <c r="J14" s="1"/>
     </row>
-    <row r="15" spans="1:10" ht="18.95" customHeight="1">
+    <row r="15" spans="1:10" ht="19" customHeight="1">
       <c r="A15" s="4">
         <v>11</v>
       </c>
@@ -896,7 +900,7 @@
       <c r="I15" s="3"/>
       <c r="J15" s="1"/>
     </row>
-    <row r="16" spans="1:10" ht="18.95" customHeight="1">
+    <row r="16" spans="1:10" ht="19" customHeight="1">
       <c r="A16" s="4">
         <v>12</v>
       </c>
@@ -910,7 +914,7 @@
       <c r="I16" s="3"/>
       <c r="J16" s="1"/>
     </row>
-    <row r="17" spans="1:10" ht="18.95" customHeight="1">
+    <row r="17" spans="1:10" ht="19" customHeight="1">
       <c r="A17" s="4">
         <v>13</v>
       </c>
@@ -924,7 +928,7 @@
       <c r="I17" s="3"/>
       <c r="J17" s="1"/>
     </row>
-    <row r="18" spans="1:10" ht="18.95" customHeight="1">
+    <row r="18" spans="1:10" ht="19" customHeight="1">
       <c r="A18" s="4">
         <v>14</v>
       </c>
@@ -938,7 +942,7 @@
       <c r="I18" s="3"/>
       <c r="J18" s="1"/>
     </row>
-    <row r="19" spans="1:10" ht="18.95" customHeight="1">
+    <row r="19" spans="1:10" ht="19" customHeight="1">
       <c r="A19" s="4">
         <v>15</v>
       </c>
@@ -952,7 +956,7 @@
       <c r="I19" s="3"/>
       <c r="J19" s="1"/>
     </row>
-    <row r="20" spans="1:10" ht="18.95" customHeight="1">
+    <row r="20" spans="1:10" ht="19" customHeight="1">
       <c r="A20" s="4">
         <v>16</v>
       </c>
@@ -966,7 +970,7 @@
       <c r="I20" s="3"/>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" s="20" customFormat="1" ht="27.95" customHeight="1">
+    <row r="21" spans="1:10" s="11" customFormat="1" ht="28" customHeight="1">
       <c r="A21" s="16" t="s">
         <v>17</v>
       </c>
@@ -978,9 +982,9 @@
       <c r="G21" s="17"/>
       <c r="H21" s="17"/>
       <c r="I21" s="18"/>
-      <c r="J21" s="19"/>
-    </row>
-    <row r="22" spans="1:10" s="20" customFormat="1" ht="27.95" customHeight="1">
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:10" s="11" customFormat="1" ht="28" customHeight="1">
       <c r="A22" s="16" t="s">
         <v>18</v>
       </c>
@@ -992,9 +996,9 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
-    </row>
-    <row r="23" spans="1:10" s="23" customFormat="1" ht="24" customHeight="1">
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:10" s="13" customFormat="1" ht="24" customHeight="1">
       <c r="A23" s="21" t="s">
         <v>10</v>
       </c>
@@ -1012,15 +1016,10 @@
         <v>13</v>
       </c>
       <c r="I23" s="21"/>
-      <c r="J23" s="22"/>
+      <c r="J23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="A21:I21"/>
-    <mergeCell ref="A22:I22"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -1033,9 +1032,19 @@
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="A21:I21"/>
+    <mergeCell ref="A22:I22"/>
+    <mergeCell ref="F3:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.70866141732283472" bottom="0.70866141732283472" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="landscape"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>